--- a/test001.xlsx
+++ b/test001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26F33E-9A58-4698-9FE3-A9AA981D3B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814783FF-E50B-407F-9989-72E1C39946BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
     <t>test001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,27 +357,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test001.xlsx
+++ b/test001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814783FF-E50B-407F-9989-72E1C39946BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E48E92-4477-429F-A352-679D08681766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
   <si>
     <t>test001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +364,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -370,14 +374,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
       <c r="N13" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -387,12 +442,71 @@
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
       <c r="J19" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.2">

--- a/test001.xlsx
+++ b/test001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E48E92-4477-429F-A352-679D08681766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8BC91-6CCA-48A2-81EB-23E74F75A2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="4">
   <si>
     <t>test001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>test003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -374,53 +378,252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
       <c r="N13" t="s">
         <v>1</v>
       </c>
@@ -429,34 +632,112 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
       <c r="T16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -466,8 +747,23 @@
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>

--- a/test001.xlsx
+++ b/test001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E48E92-4477-429F-A352-679D08681766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C34F6D-CB7A-4968-897B-71A6F8F7442D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="4">
   <si>
     <t>test001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>test003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,58 +395,298 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
       <c r="T16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
@@ -453,8 +697,29 @@
       <c r="K17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" t="s">
         <v>2</v>
       </c>
@@ -464,8 +729,29 @@
       <c r="K18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
       <c r="I19" t="s">
         <v>2</v>
       </c>
@@ -475,8 +761,29 @@
       <c r="K19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
@@ -486,8 +793,29 @@
       <c r="K20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
@@ -497,8 +825,29 @@
       <c r="K21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
       <c r="I22" t="s">
         <v>2</v>
       </c>
@@ -508,18 +857,50 @@
       <c r="K22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
       <c r="Q23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>1</v>
       </c>

--- a/test001.xlsx
+++ b/test001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83671170-D141-494C-9EAC-AAA887C2CE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE0ED27-21E0-4A08-A56B-2A044F135835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="4">
   <si>
     <t>test001</t>
   </si>
@@ -31,10 +31,7 @@
     <t>test003</t>
   </si>
   <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>test004</t>
+    <t>test merge2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,20 +416,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -452,7 +457,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -472,7 +480,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -495,419 +506,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="K23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="K31" t="s">
-        <v>2</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T16 A22:J22 A17:D21 F17:T18 L22:T22 F19:J21 L19:T21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1 A22 A17:A21 A8 A10:A16 B2:T5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test001.xlsx
+++ b/test001.xlsx
@@ -1,24 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED626F50-24D8-48D4-AA5D-16420237F132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="4">
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test merge2</t>
+  </si>
+  <si>
+    <t>test merge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +78,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,270 +414,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>test001</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-      <c r="D1" t="str">
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <v/>
-      </c>
-      <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <v/>
-      </c>
-      <c r="I1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>test merge2</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>test003</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>test merge2</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>test merge</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>test merge2</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError sqref="A1:I3 A5:I9 A4 C4:I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>